--- a/biology/Médecine/Racine_dentaire/Racine_dentaire.xlsx
+++ b/biology/Médecine/Racine_dentaire/Racine_dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La racine dentaire (ou racine d'une dent) est la portion de la dent qui se trouve dans l'os alvéolaire, situé dans l'os basal du processus alvéolaire du maxillaire ou de la partie alvéolaire de la mandibule.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La racine dentaire est surmontée de la couronne dentaire dont elle est séparée par le col de la dent.
 Elle est constituée de dentine recouverte d'une couche de cément.
@@ -550,7 +564,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à la couronne, la racine n'est pas protégée par l'émail, mais par le cément, beaucoup plus fin. L'hypersensibilité dentinaire est donc très fréquente lorsque la racine est dénudée. Ceci peut arriver soit à la suite d'une maladie parodontale, soit à la suite d'une récession parodontale due à des forces excessives exercées sur les dents (bruxisme ou brossage traumatisant).
 </t>
